--- a/biology/Zoologie/Inoceramus/Inoceramus.xlsx
+++ b/biology/Zoologie/Inoceramus/Inoceramus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inoceramus, inocérame en français, est un genre éteint de mollusques bivalves de la sous-classe des Pteriomorphia. Ils ressemblaient vaguement aux huîtres du genre Pteria.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plusieurs espèces d'Inoceramus ont connu une large distribution mondiale durant le Crétacé.
 On en trouve de nombreux fossiles, par exemple :
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La coquille des inocérames était composée d'une épaisse couche de « prismes » de calcite déposés perpendiculairement à leur surface, avec donc un éclat nacré du vivant de l'animal. La plupart des espèces sont caractérisées par des lignes concentriques de croissance en demi-cercles.
 Les paléontologues suggèrent que le gigantisme de certaines espèces correspond à une adaptation fonctionnelle à une vie sur des fonds obscurs et anoxiques (pauvres en oxygène) ; des branchies plus étendues permettant à l'animal de mieux faire face à un déficit en oxygène des eaux.
@@ -576,7 +592,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nombre des espèces valides dans ce genre ne fait pas encore l'objet de consensus, de même que la taxinomie, avec les genres, tels que Platyceramus parfois classé comme sous-genre d'inoceramus.
 </t>
